--- a/Results and findings/Categories/CategorizeCounts.xlsx
+++ b/Results and findings/Categories/CategorizeCounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusreen/Documents/GitHub/Thesis/Results and findings/Categories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05F08EFE-61A1-AC49-9F4B-18933E20AF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBA1AE4-5A85-2A44-93C0-EE15E4B2F3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15620" activeTab="3" xr2:uid="{A3DE1EA7-3C92-F442-ACAF-EB7A8EDF30B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A3DE1EA7-3C92-F442-ACAF-EB7A8EDF30B7}"/>
   </bookViews>
   <sheets>
     <sheet name="111" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CAMIM2" sheetId="3" r:id="rId3"/>
     <sheet name="Real" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
   <si>
     <t>FinalResultsBandageVSSPAligner</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t xml:space="preserve">SinglePathMatch   </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B45581-FB8E-2242-AA30-A60925596B3B}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,84 +456,130 @@
     <col min="1" max="1" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>($B2/$B$15)*100</f>
+        <v>59.740259740259738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>($B3/$B$15)*100</f>
+        <v>40.259740259740262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>362</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>($B6/$B$15)*100</f>
+        <v>94.025974025974023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" ref="C7:C8" si="0">($B7/$B$15)*100</f>
+        <v>3.8961038961038961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.0779220779220777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11">
         <v>234</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>($B11/$B$15)*100</f>
+        <v>60.779220779220779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <v>151</v>
+      </c>
+      <c r="C12">
+        <f>($B12/$B$15)*100</f>
+        <v>39.220779220779221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B3)</f>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -537,95 +589,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FEAE6D-3FB0-734C-B5E8-62F6D6691AD9}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>668</v>
+      </c>
+      <c r="C2">
+        <f>($B2/$B$14)*100</f>
+        <v>94.483734087694486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <f>($B3/$B$14)*100</f>
+        <v>5.5162659123055162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>502</v>
+      </c>
+      <c r="C6">
+        <f>($B6/$B$14)*100</f>
+        <v>71.004243281471005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C8" si="0">($B7/$B$14)*100</f>
+        <v>24.045261669024047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4.9504950495049505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>674</v>
+      </c>
+      <c r="C11">
+        <f>($B11/$B$14)*100</f>
+        <v>95.332390381895337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <f>($B12/$B$14)*100</f>
+        <v>4.6676096181046676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B3)</f>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -635,10 +734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E4594-A92C-3248-8D43-20E64F1FCE66}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,84 +745,130 @@
     <col min="1" max="1" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <f>($B2/$B$14)*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>(B3/B14)*100</f>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>($B6/$B$14)*100</f>
+        <v>62.962962962962962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" ref="C7:C8" si="0">($B7/$B$14)*100</f>
+        <v>20.37037037037037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>($B11/$B$14)*100</f>
+        <v>85.18518518518519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <v>8</v>
+      </c>
+      <c r="C12">
+        <f>($B12/$B$14)*100</f>
+        <v>14.814814814814813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B11:B12)</f>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -733,10 +878,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ED1E14-51E2-8B43-A4E9-A2E8B263B85B}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,84 +889,130 @@
     <col min="1" max="1" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>($B2/$B$14)*100</f>
+        <v>63.758389261744966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>($B3/$B$14)*100</f>
+        <v>36.241610738255034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>($B6/$B$14)*100</f>
+        <v>54.36241610738255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" ref="C7:C8" si="0">($B7/$B$14)*100</f>
+        <v>23.48993288590604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>22.14765100671141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>($B11/$B$14)*100</f>
+        <v>63.087248322147651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <v>55</v>
+      </c>
+      <c r="C12">
+        <f>($B12/$B$14)*100</f>
+        <v>36.912751677852349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B11:B12)</f>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
